--- a/biology/Botanique/Rivina_humilis/Rivina_humilis.xlsx
+++ b/biology/Botanique/Rivina_humilis/Rivina_humilis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rivina humilis est une espèce de plante à fleurs de la famille des Petiveriaceae (anciennement Phytolaccaceae)[3]. On le trouve du sud des États-Unis, et des Caraïbes, à l'Amérique centrale et à l'Amérique du Sud tropicale. Les noms communs incluent Baies de corail, Groseille, Ti Groseille à la Réunion[4],[5], pigeonberry[6], rougeplant, baby peppers[7], bloodberry, et coralito. Le nom botanique signifie en latin "nain" ou "humble", en référence à la petite taille de la plante[8].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rivina humilis est une espèce de plante à fleurs de la famille des Petiveriaceae (anciennement Phytolaccaceae). On le trouve du sud des États-Unis, et des Caraïbes, à l'Amérique centrale et à l'Amérique du Sud tropicale. Les noms communs incluent Baies de corail, Groseille, Ti Groseille à la Réunion pigeonberry, rougeplant, baby peppers, bloodberry, et coralito. Le nom botanique signifie en latin "nain" ou "humble", en référence à la petite taille de la plante.
 </t>
         </is>
       </c>
@@ -513,14 +525,124 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aspect général
-La baie de corail est une liane herbacée[9],[7] atteignant une hauteur de 0,4 à 2 mètres.
-Feuilles
-Les feuilles de cette plante vivace à feuilles persistantes[10] mesurent 15 cm de large et 9 cm de long, avec un pétiole de 1 à 11 centimètres de longueur.
-Fleurs
-Les fleurs sont sur les racèmes de 4 à 15 cm de long avec un pédoncule de 1 à 5 cm de longueur et des pédicelles de 2 à 8 millimètres de long. Les sépales sont de 1,5-3,5 millimètres de longueur et blanc ou vert à rose ou violacé.
-Fruits
-Le fruit est une baie rouge brillante et brillante[8] de 2,5-5 millimètres de diamètre.
+          <t>Aspect général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La baie de corail est une liane herbacée, atteignant une hauteur de 0,4 à 2 mètres.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Rivina_humilis</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rivina_humilis</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Feuilles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles de cette plante vivace à feuilles persistantes mesurent 15 cm de large et 9 cm de long, avec un pétiole de 1 à 11 centimètres de longueur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Rivina_humilis</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rivina_humilis</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs sont sur les racèmes de 4 à 15 cm de long avec un pédoncule de 1 à 5 cm de longueur et des pédicelles de 2 à 8 millimètres de long. Les sépales sont de 1,5-3,5 millimètres de longueur et blanc ou vert à rose ou violacé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Rivina_humilis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rivina_humilis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fruits</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fruit est une baie rouge brillante et brillante de 2,5-5 millimètres de diamètre.
 			Rivina humilis cultivé.
 			Rivina humilis en fleurs et fruits.
 			Rivina humilis en fleurs.
@@ -534,98 +656,104 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Rivina_humilis</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Rivina_humilis</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rivinia humilis peut être trouvé en forêt, dans les fourrés, sur les amas coquillers, les bords de routes et les zones perturbées à des altitudes allant du niveau de la mer à 1 700 m[9]. Il nécessite moins de soleil partiel et tolère l'ombre totale. Il tolère également les embruns salés et les sols salins[10].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rivinia humilis peut être trouvé en forêt, dans les fourrés, sur les amas coquillers, les bords de routes et les zones perturbées à des altitudes allant du niveau de la mer à 1 700 m. Il nécessite moins de soleil partiel et tolère l'ombre totale. Il tolère également les embruns salés et les sols salins.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Rivina_humilis</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Rivina_humilis</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Usages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rivina humilis est cultivé comme plante ornementale dans les régions chaudes du monde entier[9] et est apprécié comme plante couvre-sol tolérant à l'ombre[11]. Il est également cultivé comme plante d'intérieur[12] et en serre.
-Le jus fabriqué à partir des baies a été utilisé la fois comme colorant et comme encre. Les baies contiennent un pigment connu sous le nom de rivianine ou rivinianine[8] qui porte le nom IUPAC 5-O-β- D- Glucopyranoside, 3-sulfate, numéro CAS 58115-21-2 et formule chimique C24H26N2O16S[13]. Il est très similaire à la bétanine, le pigment présent dans les betteraves. Le fruit contient également la bétaxanthine humilixanthine[14].
-Le jus des baies a été testé sur des rats mâles et serait sans danger[15].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rivina humilis est cultivé comme plante ornementale dans les régions chaudes du monde entier et est apprécié comme plante couvre-sol tolérant à l'ombre. Il est également cultivé comme plante d'intérieur et en serre.
+Le jus fabriqué à partir des baies a été utilisé la fois comme colorant et comme encre. Les baies contiennent un pigment connu sous le nom de rivianine ou rivinianine qui porte le nom IUPAC 5-O-β- D- Glucopyranoside, 3-sulfate, numéro CAS 58115-21-2 et formule chimique C24H26N2O16S. Il est très similaire à la bétanine, le pigment présent dans les betteraves. Le fruit contient également la bétaxanthine humilixanthine.
+Le jus des baies a été testé sur des rats mâles et serait sans danger.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Rivina_humilis</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Rivina_humilis</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rivina humilis est une plante hôte des chenilles du papillon Cyanophrys goodsoni[16].
-Rivina humilis est considérée comme envahissante en Nouvelle-Calédonie, où elle a probablement été introduite en 1900[17], mais aussi à la Réunion, en Ouganda, en Chine, dans les îles Cocos, Chagos, Bonin, Hawaï, Fidji, Norfolk, Tonga, Tuvalu, Galapagos en Polynésie, en Australie, aux Philippines, à Singapour[18].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rivina humilis est une plante hôte des chenilles du papillon Cyanophrys goodsoni.
+Rivina humilis est considérée comme envahissante en Nouvelle-Calédonie, où elle a probablement été introduite en 1900, mais aussi à la Réunion, en Ouganda, en Chine, dans les îles Cocos, Chagos, Bonin, Hawaï, Fidji, Norfolk, Tonga, Tuvalu, Galapagos en Polynésie, en Australie, aux Philippines, à Singapour.
 </t>
         </is>
       </c>
